--- a/Data/OriginateHeaderMapping.xlsx
+++ b/Data/OriginateHeaderMapping.xlsx
@@ -230,7 +230,7 @@
     <t>str</t>
   </si>
   <si>
-    <t>np.float_</t>
+    <t>numpy.float_</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/OriginateHeaderMapping.xlsx
+++ b/Data/OriginateHeaderMapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Header</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>numpy.float_</t>
+  </si>
+  <si>
+    <t>DeletedAfterCleaning</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +564,7 @@
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +577,11 @@
       <c r="D1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -588,8 +594,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -602,8 +611,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -616,8 +628,11 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -630,8 +645,11 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -644,8 +662,11 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -658,8 +679,11 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -672,8 +696,11 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -686,8 +713,11 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -700,8 +730,11 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -714,8 +747,11 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -728,8 +764,11 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -742,8 +781,11 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -756,8 +798,11 @@
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -770,8 +815,11 @@
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -784,8 +832,11 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -798,8 +849,11 @@
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -812,8 +866,11 @@
       <c r="D18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -826,8 +883,11 @@
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -840,8 +900,11 @@
       <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -854,8 +917,11 @@
       <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -868,8 +934,11 @@
       <c r="D22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -882,8 +951,11 @@
       <c r="D23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -896,8 +968,11 @@
       <c r="D24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -910,8 +985,11 @@
       <c r="D25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -924,8 +1002,11 @@
       <c r="D26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -938,8 +1019,11 @@
       <c r="D27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -952,8 +1036,11 @@
       <c r="D28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -966,8 +1053,11 @@
       <c r="D29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -980,8 +1070,11 @@
       <c r="D30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -994,8 +1087,11 @@
       <c r="D31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1007,6 +1103,9 @@
       </c>
       <c r="D32">
         <v>31</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
